--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riko\Documents\WEAVING\組織図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gitwork\WeavingMacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1343B901-9A26-4DC8-94FC-F94B406406BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8535"/>
+    <workbookView xWindow="2724" yWindow="420" windowWidth="18096" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイアップ右上" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>斜文織</t>
     <rPh sb="0" eb="3">
@@ -98,11 +99,21 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>平織り＋綾織り</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アヤオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -469,13 +480,359 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,6 +918,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -840,16 +1233,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:CN101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="BJ50" sqref="BJ50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:92" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:92" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -947,7 +1341,7 @@
       <c r="CM1" s="45"/>
       <c r="CN1" s="46"/>
     </row>
-    <row r="2" spans="1:92" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:92" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1045,7 +1439,7 @@
       <c r="CM2" s="31"/>
       <c r="CN2" s="32"/>
     </row>
-    <row r="3" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -1147,7 +1541,7 @@
       <c r="CM3" s="34"/>
       <c r="CN3" s="35"/>
     </row>
-    <row r="4" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -1241,7 +1635,7 @@
       <c r="CM4" s="34"/>
       <c r="CN4" s="35"/>
     </row>
-    <row r="5" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1335,7 +1729,7 @@
       <c r="CM5" s="34"/>
       <c r="CN5" s="35"/>
     </row>
-    <row r="6" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1429,7 +1823,7 @@
       <c r="CM6" s="34"/>
       <c r="CN6" s="35"/>
     </row>
-    <row r="7" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -1523,7 +1917,7 @@
       <c r="CM7" s="34"/>
       <c r="CN7" s="35"/>
     </row>
-    <row r="8" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1617,7 +2011,7 @@
       <c r="CM8" s="34"/>
       <c r="CN8" s="35"/>
     </row>
-    <row r="9" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -1711,7 +2105,7 @@
       <c r="CM9" s="34"/>
       <c r="CN9" s="35"/>
     </row>
-    <row r="10" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -1805,7 +2199,7 @@
       <c r="CM10" s="34"/>
       <c r="CN10" s="35"/>
     </row>
-    <row r="11" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -1899,7 +2293,7 @@
       <c r="CM11" s="34"/>
       <c r="CN11" s="35"/>
     </row>
-    <row r="12" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -1993,7 +2387,7 @@
       <c r="CM12" s="34"/>
       <c r="CN12" s="35"/>
     </row>
-    <row r="13" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -2087,7 +2481,7 @@
       <c r="CM13" s="34"/>
       <c r="CN13" s="35"/>
     </row>
-    <row r="14" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -2181,7 +2575,7 @@
       <c r="CM14" s="34"/>
       <c r="CN14" s="35"/>
     </row>
-    <row r="15" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -2275,7 +2669,7 @@
       <c r="CM15" s="34"/>
       <c r="CN15" s="35"/>
     </row>
-    <row r="16" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -2369,7 +2763,7 @@
       <c r="CM16" s="34"/>
       <c r="CN16" s="35"/>
     </row>
-    <row r="17" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -2463,7 +2857,7 @@
       <c r="CM17" s="34"/>
       <c r="CN17" s="35"/>
     </row>
-    <row r="18" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -2557,7 +2951,7 @@
       <c r="CM18" s="34"/>
       <c r="CN18" s="35"/>
     </row>
-    <row r="19" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -2651,7 +3045,7 @@
       <c r="CM19" s="34"/>
       <c r="CN19" s="35"/>
     </row>
-    <row r="20" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -2745,7 +3139,7 @@
       <c r="CM20" s="34"/>
       <c r="CN20" s="35"/>
     </row>
-    <row r="21" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -2839,7 +3233,7 @@
       <c r="CM21" s="34"/>
       <c r="CN21" s="35"/>
     </row>
-    <row r="22" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -2933,7 +3327,7 @@
       <c r="CM22" s="42"/>
       <c r="CN22" s="43"/>
     </row>
-    <row r="23" spans="1:92" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:92" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>6</v>
       </c>
@@ -3029,7 +3423,7 @@
       <c r="CM23" s="34"/>
       <c r="CN23" s="35"/>
     </row>
-    <row r="24" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -3123,7 +3517,7 @@
       <c r="CM24" s="34"/>
       <c r="CN24" s="35"/>
     </row>
-    <row r="25" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -3225,7 +3619,7 @@
       <c r="CM25" s="34"/>
       <c r="CN25" s="35"/>
     </row>
-    <row r="26" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -3319,7 +3713,7 @@
       <c r="CM26" s="34"/>
       <c r="CN26" s="35"/>
     </row>
-    <row r="27" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3413,7 +3807,7 @@
       <c r="CM27" s="34"/>
       <c r="CN27" s="35"/>
     </row>
-    <row r="28" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="38"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -3507,7 +3901,7 @@
       <c r="CM28" s="34"/>
       <c r="CN28" s="35"/>
     </row>
-    <row r="29" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -3601,7 +3995,7 @@
       <c r="CM29" s="34"/>
       <c r="CN29" s="35"/>
     </row>
-    <row r="30" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3695,7 +4089,7 @@
       <c r="CM30" s="34"/>
       <c r="CN30" s="35"/>
     </row>
-    <row r="31" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -3789,7 +4183,7 @@
       <c r="CM31" s="34"/>
       <c r="CN31" s="35"/>
     </row>
-    <row r="32" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -3883,7 +4277,7 @@
       <c r="CM32" s="34"/>
       <c r="CN32" s="35"/>
     </row>
-    <row r="33" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -3977,7 +4371,7 @@
       <c r="CM33" s="34"/>
       <c r="CN33" s="35"/>
     </row>
-    <row r="34" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -4071,7 +4465,7 @@
       <c r="CM34" s="34"/>
       <c r="CN34" s="35"/>
     </row>
-    <row r="35" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -4165,7 +4559,7 @@
       <c r="CM35" s="34"/>
       <c r="CN35" s="35"/>
     </row>
-    <row r="36" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -4259,7 +4653,7 @@
       <c r="CM36" s="34"/>
       <c r="CN36" s="35"/>
     </row>
-    <row r="37" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -4353,7 +4747,7 @@
       <c r="CM37" s="34"/>
       <c r="CN37" s="35"/>
     </row>
-    <row r="38" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -4447,7 +4841,7 @@
       <c r="CM38" s="34"/>
       <c r="CN38" s="35"/>
     </row>
-    <row r="39" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -4541,7 +4935,7 @@
       <c r="CM39" s="34"/>
       <c r="CN39" s="35"/>
     </row>
-    <row r="40" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
@@ -4635,7 +5029,7 @@
       <c r="CM40" s="34"/>
       <c r="CN40" s="35"/>
     </row>
-    <row r="41" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
@@ -4729,7 +5123,7 @@
       <c r="CM41" s="34"/>
       <c r="CN41" s="35"/>
     </row>
-    <row r="42" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -4823,7 +5217,7 @@
       <c r="CM42" s="34"/>
       <c r="CN42" s="35"/>
     </row>
-    <row r="43" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -4917,7 +5311,7 @@
       <c r="CM43" s="34"/>
       <c r="CN43" s="35"/>
     </row>
-    <row r="44" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
@@ -5011,7 +5405,7 @@
       <c r="CM44" s="34"/>
       <c r="CN44" s="35"/>
     </row>
-    <row r="45" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -5105,7 +5499,7 @@
       <c r="CM45" s="42"/>
       <c r="CN45" s="43"/>
     </row>
-    <row r="46" spans="1:92" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:92" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A46" s="30" t="s">
         <v>5</v>
       </c>
@@ -5201,7 +5595,7 @@
       <c r="CM46" s="31"/>
       <c r="CN46" s="32"/>
     </row>
-    <row r="47" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -5295,7 +5689,7 @@
       <c r="CM47" s="34"/>
       <c r="CN47" s="35"/>
     </row>
-    <row r="48" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
@@ -5397,7 +5791,7 @@
       <c r="CM48" s="34"/>
       <c r="CN48" s="35"/>
     </row>
-    <row r="49" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
@@ -5491,7 +5885,7 @@
       <c r="CM49" s="34"/>
       <c r="CN49" s="35"/>
     </row>
-    <row r="50" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="38"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5585,7 +5979,7 @@
       <c r="CM50" s="34"/>
       <c r="CN50" s="35"/>
     </row>
-    <row r="51" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5679,7 +6073,7 @@
       <c r="CM51" s="34"/>
       <c r="CN51" s="35"/>
     </row>
-    <row r="52" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5773,7 +6167,7 @@
       <c r="CM52" s="34"/>
       <c r="CN52" s="35"/>
     </row>
-    <row r="53" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="38"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5867,7 +6261,7 @@
       <c r="CM53" s="34"/>
       <c r="CN53" s="35"/>
     </row>
-    <row r="54" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -5961,7 +6355,7 @@
       <c r="CM54" s="34"/>
       <c r="CN54" s="35"/>
     </row>
-    <row r="55" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -6055,7 +6449,7 @@
       <c r="CM55" s="34"/>
       <c r="CN55" s="35"/>
     </row>
-    <row r="56" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -6149,7 +6543,7 @@
       <c r="CM56" s="34"/>
       <c r="CN56" s="35"/>
     </row>
-    <row r="57" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -6243,7 +6637,7 @@
       <c r="CM57" s="34"/>
       <c r="CN57" s="35"/>
     </row>
-    <row r="58" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -6337,7 +6731,7 @@
       <c r="CM58" s="34"/>
       <c r="CN58" s="35"/>
     </row>
-    <row r="59" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -6431,7 +6825,7 @@
       <c r="CM59" s="34"/>
       <c r="CN59" s="35"/>
     </row>
-    <row r="60" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -6525,7 +6919,7 @@
       <c r="CM60" s="34"/>
       <c r="CN60" s="35"/>
     </row>
-    <row r="61" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
@@ -6619,7 +7013,7 @@
       <c r="CM61" s="34"/>
       <c r="CN61" s="35"/>
     </row>
-    <row r="62" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
@@ -6713,7 +7107,7 @@
       <c r="CM62" s="34"/>
       <c r="CN62" s="35"/>
     </row>
-    <row r="63" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
@@ -6807,7 +7201,7 @@
       <c r="CM63" s="34"/>
       <c r="CN63" s="35"/>
     </row>
-    <row r="64" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -6901,7 +7295,7 @@
       <c r="CM64" s="34"/>
       <c r="CN64" s="35"/>
     </row>
-    <row r="65" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -6995,7 +7389,7 @@
       <c r="CM65" s="34"/>
       <c r="CN65" s="35"/>
     </row>
-    <row r="66" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -7089,7 +7483,7 @@
       <c r="CM66" s="34"/>
       <c r="CN66" s="35"/>
     </row>
-    <row r="67" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -7183,7 +7577,7 @@
       <c r="CM67" s="34"/>
       <c r="CN67" s="35"/>
     </row>
-    <row r="68" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -7277,7 +7671,7 @@
       <c r="CM68" s="34"/>
       <c r="CN68" s="35"/>
     </row>
-    <row r="69" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -7371,7 +7765,7 @@
       <c r="CM69" s="34"/>
       <c r="CN69" s="35"/>
     </row>
-    <row r="70" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
@@ -7465,7 +7859,7 @@
       <c r="CM70" s="34"/>
       <c r="CN70" s="35"/>
     </row>
-    <row r="71" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -7559,7 +7953,7 @@
       <c r="CM71" s="34"/>
       <c r="CN71" s="35"/>
     </row>
-    <row r="72" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -7653,7 +8047,7 @@
       <c r="CM72" s="34"/>
       <c r="CN72" s="35"/>
     </row>
-    <row r="73" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
@@ -7747,7 +8141,7 @@
       <c r="CM73" s="34"/>
       <c r="CN73" s="35"/>
     </row>
-    <row r="74" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
       <c r="C74" s="34"/>
@@ -7841,7 +8235,7 @@
       <c r="CM74" s="34"/>
       <c r="CN74" s="35"/>
     </row>
-    <row r="75" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="41"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42"/>
@@ -7935,6 +8329,2460 @@
       <c r="CM75" s="42"/>
       <c r="CN75" s="43"/>
     </row>
+    <row r="76" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="31"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="31"/>
+      <c r="V76" s="31"/>
+      <c r="W76" s="31"/>
+      <c r="X76" s="31"/>
+      <c r="Y76" s="31"/>
+      <c r="Z76" s="31"/>
+      <c r="AA76" s="31"/>
+      <c r="AB76" s="31"/>
+      <c r="AC76" s="31"/>
+      <c r="AD76" s="31"/>
+      <c r="AE76" s="31"/>
+      <c r="AF76" s="31"/>
+      <c r="AG76" s="31"/>
+      <c r="AH76" s="31"/>
+      <c r="AI76" s="31"/>
+      <c r="AJ76" s="31"/>
+      <c r="AK76" s="31"/>
+      <c r="AL76" s="31"/>
+      <c r="AM76" s="31"/>
+      <c r="AN76" s="31"/>
+      <c r="AO76" s="31"/>
+      <c r="AP76" s="31"/>
+      <c r="AQ76" s="31"/>
+      <c r="AR76" s="31"/>
+      <c r="AS76" s="31"/>
+      <c r="AT76" s="32"/>
+      <c r="AU76" s="30"/>
+      <c r="AV76" s="31"/>
+      <c r="AW76" s="31"/>
+      <c r="AX76" s="31"/>
+      <c r="AY76" s="31"/>
+      <c r="AZ76" s="31"/>
+      <c r="BA76" s="31"/>
+      <c r="BB76" s="31"/>
+      <c r="BC76" s="31"/>
+      <c r="BD76" s="31"/>
+      <c r="BE76" s="31"/>
+      <c r="BF76" s="31"/>
+      <c r="BG76" s="31"/>
+      <c r="BH76" s="31"/>
+      <c r="BI76" s="31"/>
+      <c r="BJ76" s="31"/>
+      <c r="BK76" s="31"/>
+      <c r="BL76" s="31"/>
+      <c r="BM76" s="31"/>
+      <c r="BN76" s="31"/>
+      <c r="BO76" s="31"/>
+      <c r="BP76" s="31"/>
+      <c r="BQ76" s="32"/>
+      <c r="BR76" s="30"/>
+      <c r="BS76" s="31"/>
+      <c r="BT76" s="31"/>
+      <c r="BU76" s="31"/>
+      <c r="BV76" s="31"/>
+      <c r="BW76" s="31"/>
+      <c r="BX76" s="31"/>
+      <c r="BY76" s="31"/>
+      <c r="BZ76" s="31"/>
+      <c r="CA76" s="31"/>
+      <c r="CB76" s="31"/>
+      <c r="CC76" s="31"/>
+      <c r="CD76" s="31"/>
+      <c r="CE76" s="31"/>
+      <c r="CF76" s="31"/>
+      <c r="CG76" s="31"/>
+      <c r="CH76" s="31"/>
+      <c r="CI76" s="31"/>
+      <c r="CJ76" s="31"/>
+      <c r="CK76" s="31"/>
+      <c r="CL76" s="31"/>
+      <c r="CM76" s="31"/>
+      <c r="CN76" s="32"/>
+    </row>
+    <row r="77" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="33"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="34"/>
+      <c r="V77" s="34"/>
+      <c r="W77" s="34"/>
+      <c r="X77" s="34"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
+      <c r="AB77" s="34"/>
+      <c r="AC77" s="34"/>
+      <c r="AD77" s="34"/>
+      <c r="AE77" s="34"/>
+      <c r="AF77" s="34"/>
+      <c r="AG77" s="34"/>
+      <c r="AH77" s="34"/>
+      <c r="AI77" s="34"/>
+      <c r="AJ77" s="34"/>
+      <c r="AK77" s="34"/>
+      <c r="AL77" s="34"/>
+      <c r="AM77" s="34"/>
+      <c r="AN77" s="34"/>
+      <c r="AO77" s="34"/>
+      <c r="AP77" s="34"/>
+      <c r="AQ77" s="34"/>
+      <c r="AR77" s="34"/>
+      <c r="AS77" s="34"/>
+      <c r="AT77" s="35"/>
+      <c r="AU77" s="33"/>
+      <c r="AV77" s="34"/>
+      <c r="AW77" s="34"/>
+      <c r="AX77" s="34"/>
+      <c r="AY77" s="34"/>
+      <c r="AZ77" s="34"/>
+      <c r="BA77" s="34"/>
+      <c r="BB77" s="34"/>
+      <c r="BC77" s="34"/>
+      <c r="BD77" s="34"/>
+      <c r="BE77" s="34"/>
+      <c r="BF77" s="34"/>
+      <c r="BG77" s="34"/>
+      <c r="BH77" s="34"/>
+      <c r="BI77" s="34"/>
+      <c r="BJ77" s="34"/>
+      <c r="BK77" s="34"/>
+      <c r="BL77" s="34"/>
+      <c r="BM77" s="34"/>
+      <c r="BN77" s="34"/>
+      <c r="BO77" s="34"/>
+      <c r="BP77" s="34"/>
+      <c r="BQ77" s="35"/>
+      <c r="BR77" s="33"/>
+      <c r="BS77" s="34"/>
+      <c r="BT77" s="34"/>
+      <c r="BU77" s="34"/>
+      <c r="BV77" s="34"/>
+      <c r="BW77" s="34"/>
+      <c r="BX77" s="34"/>
+      <c r="BY77" s="34"/>
+      <c r="BZ77" s="34"/>
+      <c r="CA77" s="34"/>
+      <c r="CB77" s="34"/>
+      <c r="CC77" s="34"/>
+      <c r="CD77" s="34"/>
+      <c r="CE77" s="34"/>
+      <c r="CF77" s="34"/>
+      <c r="CG77" s="34"/>
+      <c r="CH77" s="34"/>
+      <c r="CI77" s="34"/>
+      <c r="CJ77" s="34"/>
+      <c r="CK77" s="34"/>
+      <c r="CL77" s="34"/>
+      <c r="CM77" s="34"/>
+      <c r="CN77" s="35"/>
+    </row>
+    <row r="78" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="36"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="79"/>
+      <c r="N78" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="U78" s="34"/>
+      <c r="V78" s="34"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="34"/>
+      <c r="AC78" s="34"/>
+      <c r="AD78" s="34"/>
+      <c r="AE78" s="34"/>
+      <c r="AF78" s="34"/>
+      <c r="AG78" s="34"/>
+      <c r="AH78" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI78" s="34"/>
+      <c r="AJ78" s="34"/>
+      <c r="AK78" s="34"/>
+      <c r="AL78" s="34"/>
+      <c r="AM78" s="34"/>
+      <c r="AN78" s="34"/>
+      <c r="AO78" s="34"/>
+      <c r="AP78" s="34"/>
+      <c r="AQ78" s="34"/>
+      <c r="AR78" s="34"/>
+      <c r="AS78" s="34"/>
+      <c r="AT78" s="35"/>
+      <c r="AU78" s="33"/>
+      <c r="AV78" s="34"/>
+      <c r="AW78" s="34"/>
+      <c r="AX78" s="34"/>
+      <c r="AY78" s="34"/>
+      <c r="AZ78" s="34"/>
+      <c r="BA78" s="34"/>
+      <c r="BB78" s="34"/>
+      <c r="BC78" s="34"/>
+      <c r="BD78" s="34"/>
+      <c r="BE78" s="34"/>
+      <c r="BF78" s="34"/>
+      <c r="BG78" s="34"/>
+      <c r="BH78" s="34"/>
+      <c r="BI78" s="34"/>
+      <c r="BJ78" s="34"/>
+      <c r="BK78" s="34"/>
+      <c r="BL78" s="34"/>
+      <c r="BM78" s="34"/>
+      <c r="BN78" s="34"/>
+      <c r="BO78" s="34"/>
+      <c r="BP78" s="34"/>
+      <c r="BQ78" s="35"/>
+      <c r="BR78" s="33"/>
+      <c r="BS78" s="34"/>
+      <c r="BT78" s="34"/>
+      <c r="BU78" s="34"/>
+      <c r="BV78" s="34"/>
+      <c r="BW78" s="34"/>
+      <c r="BX78" s="34"/>
+      <c r="BY78" s="34"/>
+      <c r="BZ78" s="34"/>
+      <c r="CA78" s="34"/>
+      <c r="CB78" s="34"/>
+      <c r="CC78" s="34"/>
+      <c r="CD78" s="34"/>
+      <c r="CE78" s="34"/>
+      <c r="CF78" s="34"/>
+      <c r="CG78" s="34"/>
+      <c r="CH78" s="34"/>
+      <c r="CI78" s="34"/>
+      <c r="CJ78" s="34"/>
+      <c r="CK78" s="34"/>
+      <c r="CL78" s="34"/>
+      <c r="CM78" s="34"/>
+      <c r="CN78" s="35"/>
+    </row>
+    <row r="79" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="80"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="79"/>
+      <c r="L79" s="79"/>
+      <c r="M79" s="79"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34"/>
+      <c r="S79" s="34"/>
+      <c r="T79" s="34"/>
+      <c r="U79" s="34"/>
+      <c r="V79" s="34"/>
+      <c r="W79" s="34"/>
+      <c r="X79" s="34"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
+      <c r="AB79" s="34"/>
+      <c r="AC79" s="34"/>
+      <c r="AD79" s="34"/>
+      <c r="AE79" s="34"/>
+      <c r="AF79" s="34"/>
+      <c r="AG79" s="34"/>
+      <c r="AH79" s="34"/>
+      <c r="AI79" s="34"/>
+      <c r="AJ79" s="34"/>
+      <c r="AK79" s="34"/>
+      <c r="AL79" s="34"/>
+      <c r="AM79" s="34"/>
+      <c r="AN79" s="34"/>
+      <c r="AO79" s="34"/>
+      <c r="AP79" s="34"/>
+      <c r="AQ79" s="34"/>
+      <c r="AR79" s="34"/>
+      <c r="AS79" s="34"/>
+      <c r="AT79" s="35"/>
+      <c r="AU79" s="33"/>
+      <c r="AV79" s="34"/>
+      <c r="AW79" s="34"/>
+      <c r="AX79" s="34"/>
+      <c r="AY79" s="34"/>
+      <c r="AZ79" s="34"/>
+      <c r="BA79" s="34"/>
+      <c r="BB79" s="34"/>
+      <c r="BC79" s="34"/>
+      <c r="BD79" s="34"/>
+      <c r="BE79" s="34"/>
+      <c r="BF79" s="34"/>
+      <c r="BG79" s="34"/>
+      <c r="BH79" s="34"/>
+      <c r="BI79" s="34"/>
+      <c r="BJ79" s="34"/>
+      <c r="BK79" s="34"/>
+      <c r="BL79" s="34"/>
+      <c r="BM79" s="34"/>
+      <c r="BN79" s="34"/>
+      <c r="BO79" s="34"/>
+      <c r="BP79" s="34"/>
+      <c r="BQ79" s="35"/>
+      <c r="BR79" s="33"/>
+      <c r="BS79" s="34"/>
+      <c r="BT79" s="34"/>
+      <c r="BU79" s="34"/>
+      <c r="BV79" s="34"/>
+      <c r="BW79" s="34"/>
+      <c r="BX79" s="34"/>
+      <c r="BY79" s="34"/>
+      <c r="BZ79" s="34"/>
+      <c r="CA79" s="34"/>
+      <c r="CB79" s="34"/>
+      <c r="CC79" s="34"/>
+      <c r="CD79" s="34"/>
+      <c r="CE79" s="34"/>
+      <c r="CF79" s="34"/>
+      <c r="CG79" s="34"/>
+      <c r="CH79" s="34"/>
+      <c r="CI79" s="34"/>
+      <c r="CJ79" s="34"/>
+      <c r="CK79" s="34"/>
+      <c r="CL79" s="34"/>
+      <c r="CM79" s="34"/>
+      <c r="CN79" s="35"/>
+    </row>
+    <row r="80" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="81"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="79"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="34"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="79"/>
+      <c r="Y80" s="79"/>
+      <c r="Z80" s="47"/>
+      <c r="AA80" s="48"/>
+      <c r="AB80" s="47"/>
+      <c r="AC80" s="47"/>
+      <c r="AD80" s="48"/>
+      <c r="AE80" s="48"/>
+      <c r="AF80" s="79"/>
+      <c r="AG80" s="79"/>
+      <c r="AH80" s="48"/>
+      <c r="AI80" s="47"/>
+      <c r="AJ80" s="48"/>
+      <c r="AK80" s="2"/>
+      <c r="AL80" s="3"/>
+      <c r="AM80" s="3"/>
+      <c r="AN80" s="79"/>
+      <c r="AO80" s="34"/>
+      <c r="AP80" s="34"/>
+      <c r="AQ80" s="34"/>
+      <c r="AR80" s="34"/>
+      <c r="AS80" s="34"/>
+      <c r="AT80" s="35"/>
+      <c r="AU80" s="33"/>
+      <c r="AV80" s="34"/>
+      <c r="AW80" s="34"/>
+      <c r="AX80" s="34"/>
+      <c r="AY80" s="34"/>
+      <c r="AZ80" s="34"/>
+      <c r="BA80" s="34"/>
+      <c r="BB80" s="34"/>
+      <c r="BC80" s="34"/>
+      <c r="BD80" s="34"/>
+      <c r="BE80" s="34"/>
+      <c r="BF80" s="34"/>
+      <c r="BG80" s="34"/>
+      <c r="BH80" s="34"/>
+      <c r="BI80" s="34"/>
+      <c r="BJ80" s="34"/>
+      <c r="BK80" s="34"/>
+      <c r="BL80" s="34"/>
+      <c r="BM80" s="34"/>
+      <c r="BN80" s="34"/>
+      <c r="BO80" s="34"/>
+      <c r="BP80" s="34"/>
+      <c r="BQ80" s="35"/>
+      <c r="BR80" s="33"/>
+      <c r="BS80" s="34"/>
+      <c r="BT80" s="34"/>
+      <c r="BU80" s="34"/>
+      <c r="BV80" s="34"/>
+      <c r="BW80" s="34"/>
+      <c r="BX80" s="34"/>
+      <c r="BY80" s="34"/>
+      <c r="BZ80" s="34"/>
+      <c r="CA80" s="34"/>
+      <c r="CB80" s="34"/>
+      <c r="CC80" s="34"/>
+      <c r="CD80" s="34"/>
+      <c r="CE80" s="34"/>
+      <c r="CF80" s="34"/>
+      <c r="CG80" s="34"/>
+      <c r="CH80" s="34"/>
+      <c r="CI80" s="34"/>
+      <c r="CJ80" s="34"/>
+      <c r="CK80" s="34"/>
+      <c r="CL80" s="34"/>
+      <c r="CM80" s="34"/>
+      <c r="CN80" s="35"/>
+    </row>
+    <row r="81" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="81"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="79"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="34"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="79"/>
+      <c r="Y81" s="79"/>
+      <c r="Z81" s="48"/>
+      <c r="AA81" s="47"/>
+      <c r="AB81" s="47"/>
+      <c r="AC81" s="48"/>
+      <c r="AD81" s="48"/>
+      <c r="AE81" s="47"/>
+      <c r="AF81" s="79"/>
+      <c r="AG81" s="79"/>
+      <c r="AH81" s="47"/>
+      <c r="AI81" s="48"/>
+      <c r="AJ81" s="48"/>
+      <c r="AK81" s="3"/>
+      <c r="AL81" s="3"/>
+      <c r="AM81" s="2"/>
+      <c r="AN81" s="79"/>
+      <c r="AO81" s="34"/>
+      <c r="AP81" s="34"/>
+      <c r="AQ81" s="34"/>
+      <c r="AR81" s="34"/>
+      <c r="AS81" s="34"/>
+      <c r="AT81" s="35"/>
+      <c r="AU81" s="33"/>
+      <c r="AV81" s="34"/>
+      <c r="AW81" s="34"/>
+      <c r="AX81" s="34"/>
+      <c r="AY81" s="34"/>
+      <c r="AZ81" s="34"/>
+      <c r="BA81" s="34"/>
+      <c r="BB81" s="34"/>
+      <c r="BC81" s="34"/>
+      <c r="BD81" s="34"/>
+      <c r="BE81" s="34"/>
+      <c r="BF81" s="34"/>
+      <c r="BG81" s="34"/>
+      <c r="BH81" s="34"/>
+      <c r="BI81" s="34"/>
+      <c r="BJ81" s="34"/>
+      <c r="BK81" s="34"/>
+      <c r="BL81" s="34"/>
+      <c r="BM81" s="34"/>
+      <c r="BN81" s="34"/>
+      <c r="BO81" s="34"/>
+      <c r="BP81" s="34"/>
+      <c r="BQ81" s="35"/>
+      <c r="BR81" s="33"/>
+      <c r="BS81" s="34"/>
+      <c r="BT81" s="34"/>
+      <c r="BU81" s="34"/>
+      <c r="BV81" s="34"/>
+      <c r="BW81" s="34"/>
+      <c r="BX81" s="34"/>
+      <c r="BY81" s="34"/>
+      <c r="BZ81" s="34"/>
+      <c r="CA81" s="34"/>
+      <c r="CB81" s="34"/>
+      <c r="CC81" s="34"/>
+      <c r="CD81" s="34"/>
+      <c r="CE81" s="34"/>
+      <c r="CF81" s="34"/>
+      <c r="CG81" s="34"/>
+      <c r="CH81" s="34"/>
+      <c r="CI81" s="34"/>
+      <c r="CJ81" s="34"/>
+      <c r="CK81" s="34"/>
+      <c r="CL81" s="34"/>
+      <c r="CM81" s="34"/>
+      <c r="CN81" s="35"/>
+    </row>
+    <row r="82" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="81"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="79"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="34"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="79"/>
+      <c r="Y82" s="79"/>
+      <c r="Z82" s="47"/>
+      <c r="AA82" s="48"/>
+      <c r="AB82" s="48"/>
+      <c r="AC82" s="48"/>
+      <c r="AD82" s="47"/>
+      <c r="AE82" s="47"/>
+      <c r="AF82" s="79"/>
+      <c r="AG82" s="79"/>
+      <c r="AH82" s="48"/>
+      <c r="AI82" s="47"/>
+      <c r="AJ82" s="47"/>
+      <c r="AK82" s="3"/>
+      <c r="AL82" s="2"/>
+      <c r="AM82" s="2"/>
+      <c r="AN82" s="79"/>
+      <c r="AO82" s="34"/>
+      <c r="AP82" s="34"/>
+      <c r="AQ82" s="34"/>
+      <c r="AR82" s="34"/>
+      <c r="AS82" s="34"/>
+      <c r="AT82" s="35"/>
+      <c r="AU82" s="33"/>
+      <c r="AV82" s="34"/>
+      <c r="AW82" s="34"/>
+      <c r="AX82" s="34"/>
+      <c r="AY82" s="34"/>
+      <c r="AZ82" s="34"/>
+      <c r="BA82" s="34"/>
+      <c r="BB82" s="34"/>
+      <c r="BC82" s="34"/>
+      <c r="BD82" s="34"/>
+      <c r="BE82" s="34"/>
+      <c r="BF82" s="34"/>
+      <c r="BG82" s="34"/>
+      <c r="BH82" s="34"/>
+      <c r="BI82" s="34"/>
+      <c r="BJ82" s="34"/>
+      <c r="BK82" s="34"/>
+      <c r="BL82" s="34"/>
+      <c r="BM82" s="34"/>
+      <c r="BN82" s="34"/>
+      <c r="BO82" s="34"/>
+      <c r="BP82" s="34"/>
+      <c r="BQ82" s="35"/>
+      <c r="BR82" s="33"/>
+      <c r="BS82" s="34"/>
+      <c r="BT82" s="34"/>
+      <c r="BU82" s="34"/>
+      <c r="BV82" s="34"/>
+      <c r="BW82" s="34"/>
+      <c r="BX82" s="34"/>
+      <c r="BY82" s="34"/>
+      <c r="BZ82" s="34"/>
+      <c r="CA82" s="34"/>
+      <c r="CB82" s="34"/>
+      <c r="CC82" s="34"/>
+      <c r="CD82" s="34"/>
+      <c r="CE82" s="34"/>
+      <c r="CF82" s="34"/>
+      <c r="CG82" s="34"/>
+      <c r="CH82" s="34"/>
+      <c r="CI82" s="34"/>
+      <c r="CJ82" s="34"/>
+      <c r="CK82" s="34"/>
+      <c r="CL82" s="34"/>
+      <c r="CM82" s="34"/>
+      <c r="CN82" s="35"/>
+    </row>
+    <row r="83" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="82"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="79"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="79"/>
+      <c r="Y83" s="79"/>
+      <c r="Z83" s="48"/>
+      <c r="AA83" s="47"/>
+      <c r="AB83" s="48"/>
+      <c r="AC83" s="47"/>
+      <c r="AD83" s="47"/>
+      <c r="AE83" s="48"/>
+      <c r="AF83" s="79"/>
+      <c r="AG83" s="79"/>
+      <c r="AH83" s="47"/>
+      <c r="AI83" s="48"/>
+      <c r="AJ83" s="47"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="3"/>
+      <c r="AN83" s="79"/>
+      <c r="AO83" s="34"/>
+      <c r="AP83" s="34"/>
+      <c r="AQ83" s="34"/>
+      <c r="AR83" s="34"/>
+      <c r="AS83" s="34"/>
+      <c r="AT83" s="35"/>
+      <c r="AU83" s="33"/>
+      <c r="AV83" s="34"/>
+      <c r="AW83" s="34"/>
+      <c r="AX83" s="34"/>
+      <c r="AY83" s="34"/>
+      <c r="AZ83" s="34"/>
+      <c r="BA83" s="34"/>
+      <c r="BB83" s="34"/>
+      <c r="BC83" s="34"/>
+      <c r="BD83" s="34"/>
+      <c r="BE83" s="34"/>
+      <c r="BF83" s="34"/>
+      <c r="BG83" s="34"/>
+      <c r="BH83" s="34"/>
+      <c r="BI83" s="34"/>
+      <c r="BJ83" s="34"/>
+      <c r="BK83" s="34"/>
+      <c r="BL83" s="34"/>
+      <c r="BM83" s="34"/>
+      <c r="BN83" s="34"/>
+      <c r="BO83" s="34"/>
+      <c r="BP83" s="34"/>
+      <c r="BQ83" s="35"/>
+      <c r="BR83" s="33"/>
+      <c r="BS83" s="34"/>
+      <c r="BT83" s="34"/>
+      <c r="BU83" s="34"/>
+      <c r="BV83" s="34"/>
+      <c r="BW83" s="34"/>
+      <c r="BX83" s="34"/>
+      <c r="BY83" s="34"/>
+      <c r="BZ83" s="34"/>
+      <c r="CA83" s="34"/>
+      <c r="CB83" s="34"/>
+      <c r="CC83" s="34"/>
+      <c r="CD83" s="34"/>
+      <c r="CE83" s="34"/>
+      <c r="CF83" s="34"/>
+      <c r="CG83" s="34"/>
+      <c r="CH83" s="34"/>
+      <c r="CI83" s="34"/>
+      <c r="CJ83" s="34"/>
+      <c r="CK83" s="34"/>
+      <c r="CL83" s="34"/>
+      <c r="CM83" s="34"/>
+      <c r="CN83" s="35"/>
+    </row>
+    <row r="84" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="80"/>
+      <c r="B84" s="79"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="79"/>
+      <c r="J84" s="79"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
+      <c r="M84" s="79"/>
+      <c r="N84" s="79"/>
+      <c r="O84" s="79"/>
+      <c r="P84" s="79"/>
+      <c r="Q84" s="79"/>
+      <c r="R84" s="79"/>
+      <c r="S84" s="79"/>
+      <c r="T84" s="79"/>
+      <c r="U84" s="79"/>
+      <c r="V84" s="79"/>
+      <c r="W84" s="79"/>
+      <c r="X84" s="79"/>
+      <c r="Y84" s="79"/>
+      <c r="Z84" s="79"/>
+      <c r="AA84" s="79"/>
+      <c r="AB84" s="79"/>
+      <c r="AC84" s="79"/>
+      <c r="AD84" s="79"/>
+      <c r="AE84" s="79"/>
+      <c r="AF84" s="79"/>
+      <c r="AG84" s="79"/>
+      <c r="AH84" s="79"/>
+      <c r="AI84" s="79"/>
+      <c r="AJ84" s="79"/>
+      <c r="AK84" s="79"/>
+      <c r="AL84" s="79"/>
+      <c r="AM84" s="79"/>
+      <c r="AN84" s="79"/>
+      <c r="AO84" s="79"/>
+      <c r="AP84" s="34"/>
+      <c r="AQ84" s="34"/>
+      <c r="AR84" s="34"/>
+      <c r="AS84" s="34"/>
+      <c r="AT84" s="35"/>
+      <c r="AU84" s="33"/>
+      <c r="AV84" s="34"/>
+      <c r="AW84" s="34"/>
+      <c r="AX84" s="34"/>
+      <c r="AY84" s="34"/>
+      <c r="AZ84" s="34"/>
+      <c r="BA84" s="34"/>
+      <c r="BB84" s="34"/>
+      <c r="BC84" s="34"/>
+      <c r="BD84" s="34"/>
+      <c r="BE84" s="34"/>
+      <c r="BF84" s="34"/>
+      <c r="BG84" s="34"/>
+      <c r="BH84" s="34"/>
+      <c r="BI84" s="34"/>
+      <c r="BJ84" s="34"/>
+      <c r="BK84" s="34"/>
+      <c r="BL84" s="34"/>
+      <c r="BM84" s="34"/>
+      <c r="BN84" s="34"/>
+      <c r="BO84" s="34"/>
+      <c r="BP84" s="34"/>
+      <c r="BQ84" s="35"/>
+      <c r="BR84" s="33"/>
+      <c r="BS84" s="34"/>
+      <c r="BT84" s="34"/>
+      <c r="BU84" s="34"/>
+      <c r="BV84" s="34"/>
+      <c r="BW84" s="34"/>
+      <c r="BX84" s="34"/>
+      <c r="BY84" s="34"/>
+      <c r="BZ84" s="34"/>
+      <c r="CA84" s="34"/>
+      <c r="CB84" s="34"/>
+      <c r="CC84" s="34"/>
+      <c r="CD84" s="34"/>
+      <c r="CE84" s="34"/>
+      <c r="CF84" s="34"/>
+      <c r="CG84" s="34"/>
+      <c r="CH84" s="34"/>
+      <c r="CI84" s="34"/>
+      <c r="CJ84" s="34"/>
+      <c r="CK84" s="34"/>
+      <c r="CL84" s="34"/>
+      <c r="CM84" s="34"/>
+      <c r="CN84" s="35"/>
+    </row>
+    <row r="85" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="33"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="79"/>
+      <c r="N85" s="48"/>
+      <c r="O85" s="47"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="48"/>
+      <c r="R85" s="79"/>
+      <c r="S85" s="79"/>
+      <c r="T85" s="47"/>
+      <c r="U85" s="48"/>
+      <c r="V85" s="48"/>
+      <c r="W85" s="47"/>
+      <c r="X85" s="79"/>
+      <c r="Y85" s="79"/>
+      <c r="Z85" s="47"/>
+      <c r="AA85" s="47"/>
+      <c r="AB85" s="47"/>
+      <c r="AC85" s="47"/>
+      <c r="AD85" s="47"/>
+      <c r="AE85" s="48"/>
+      <c r="AF85" s="79"/>
+      <c r="AG85" s="79"/>
+      <c r="AH85" s="47"/>
+      <c r="AI85" s="47"/>
+      <c r="AJ85" s="47"/>
+      <c r="AK85" s="47"/>
+      <c r="AL85" s="47"/>
+      <c r="AM85" s="48"/>
+      <c r="AN85" s="79"/>
+      <c r="AO85" s="40"/>
+      <c r="AP85" s="34"/>
+      <c r="AQ85" s="34"/>
+      <c r="AR85" s="34"/>
+      <c r="AS85" s="34"/>
+      <c r="AT85" s="35"/>
+      <c r="AU85" s="33"/>
+      <c r="AV85" s="34"/>
+      <c r="AW85" s="5"/>
+      <c r="AX85" s="47"/>
+      <c r="AY85" s="47"/>
+      <c r="AZ85" s="5"/>
+      <c r="BA85" s="5"/>
+      <c r="BB85" s="47"/>
+      <c r="BC85" s="47"/>
+      <c r="BD85" s="5"/>
+      <c r="BE85" s="5"/>
+      <c r="BF85" s="47"/>
+      <c r="BG85" s="47"/>
+      <c r="BH85" s="5"/>
+      <c r="BI85" s="34"/>
+      <c r="BJ85" s="34"/>
+      <c r="BK85" s="34"/>
+      <c r="BL85" s="34"/>
+      <c r="BM85" s="34"/>
+      <c r="BN85" s="34"/>
+      <c r="BO85" s="34"/>
+      <c r="BP85" s="34"/>
+      <c r="BQ85" s="35"/>
+      <c r="BR85" s="33"/>
+      <c r="BS85" s="49"/>
+      <c r="BT85" s="50"/>
+      <c r="BU85" s="51"/>
+      <c r="BV85" s="52"/>
+      <c r="BW85" s="53"/>
+      <c r="BX85" s="50"/>
+      <c r="BY85" s="51"/>
+      <c r="BZ85" s="52"/>
+      <c r="CA85" s="53"/>
+      <c r="CB85" s="50"/>
+      <c r="CC85" s="51"/>
+      <c r="CD85" s="54"/>
+      <c r="CE85" s="34"/>
+      <c r="CF85" s="34"/>
+      <c r="CG85" s="34"/>
+      <c r="CH85" s="34"/>
+      <c r="CI85" s="34"/>
+      <c r="CJ85" s="34"/>
+      <c r="CK85" s="34"/>
+      <c r="CL85" s="34"/>
+      <c r="CM85" s="34"/>
+      <c r="CN85" s="35"/>
+    </row>
+    <row r="86" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="33"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="79"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="48"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="48"/>
+      <c r="R86" s="79"/>
+      <c r="S86" s="79"/>
+      <c r="T86" s="48"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="48"/>
+      <c r="W86" s="47"/>
+      <c r="X86" s="79"/>
+      <c r="Y86" s="79"/>
+      <c r="Z86" s="47"/>
+      <c r="AA86" s="48"/>
+      <c r="AB86" s="47"/>
+      <c r="AC86" s="47"/>
+      <c r="AD86" s="47"/>
+      <c r="AE86" s="47"/>
+      <c r="AF86" s="79"/>
+      <c r="AG86" s="79"/>
+      <c r="AH86" s="47"/>
+      <c r="AI86" s="48"/>
+      <c r="AJ86" s="47"/>
+      <c r="AK86" s="47"/>
+      <c r="AL86" s="47"/>
+      <c r="AM86" s="47"/>
+      <c r="AN86" s="79"/>
+      <c r="AO86" s="40"/>
+      <c r="AP86" s="34"/>
+      <c r="AQ86" s="34"/>
+      <c r="AR86" s="34"/>
+      <c r="AS86" s="34"/>
+      <c r="AT86" s="35"/>
+      <c r="AU86" s="33"/>
+      <c r="AV86" s="34"/>
+      <c r="AW86" s="47"/>
+      <c r="AX86" s="5"/>
+      <c r="AY86" s="47"/>
+      <c r="AZ86" s="5"/>
+      <c r="BA86" s="47"/>
+      <c r="BB86" s="5"/>
+      <c r="BC86" s="47"/>
+      <c r="BD86" s="5"/>
+      <c r="BE86" s="47"/>
+      <c r="BF86" s="5"/>
+      <c r="BG86" s="47"/>
+      <c r="BH86" s="5"/>
+      <c r="BI86" s="34"/>
+      <c r="BJ86" s="34"/>
+      <c r="BK86" s="34"/>
+      <c r="BL86" s="34"/>
+      <c r="BM86" s="34"/>
+      <c r="BN86" s="34"/>
+      <c r="BO86" s="34"/>
+      <c r="BP86" s="34"/>
+      <c r="BQ86" s="35"/>
+      <c r="BR86" s="33"/>
+      <c r="BS86" s="55"/>
+      <c r="BT86" s="56"/>
+      <c r="BU86" s="57"/>
+      <c r="BV86" s="58"/>
+      <c r="BW86" s="57"/>
+      <c r="BX86" s="56"/>
+      <c r="BY86" s="57"/>
+      <c r="BZ86" s="58"/>
+      <c r="CA86" s="57"/>
+      <c r="CB86" s="56"/>
+      <c r="CC86" s="57"/>
+      <c r="CD86" s="59"/>
+      <c r="CE86" s="34"/>
+      <c r="CF86" s="34"/>
+      <c r="CG86" s="34"/>
+      <c r="CH86" s="34"/>
+      <c r="CI86" s="34"/>
+      <c r="CJ86" s="34"/>
+      <c r="CK86" s="34"/>
+      <c r="CL86" s="34"/>
+      <c r="CM86" s="34"/>
+      <c r="CN86" s="35"/>
+    </row>
+    <row r="87" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="33"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="79"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="48"/>
+      <c r="Q87" s="48"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="48"/>
+      <c r="U87" s="48"/>
+      <c r="V87" s="47"/>
+      <c r="W87" s="47"/>
+      <c r="X87" s="79"/>
+      <c r="Y87" s="79"/>
+      <c r="Z87" s="47"/>
+      <c r="AA87" s="47"/>
+      <c r="AB87" s="47"/>
+      <c r="AC87" s="47"/>
+      <c r="AD87" s="48"/>
+      <c r="AE87" s="47"/>
+      <c r="AF87" s="79"/>
+      <c r="AG87" s="79"/>
+      <c r="AH87" s="47"/>
+      <c r="AI87" s="47"/>
+      <c r="AJ87" s="47"/>
+      <c r="AK87" s="47"/>
+      <c r="AL87" s="48"/>
+      <c r="AM87" s="47"/>
+      <c r="AN87" s="79"/>
+      <c r="AO87" s="40"/>
+      <c r="AP87" s="34"/>
+      <c r="AQ87" s="34"/>
+      <c r="AR87" s="34"/>
+      <c r="AS87" s="34"/>
+      <c r="AT87" s="35"/>
+      <c r="AU87" s="33"/>
+      <c r="AV87" s="34"/>
+      <c r="AW87" s="47"/>
+      <c r="AX87" s="47"/>
+      <c r="AY87" s="5"/>
+      <c r="AZ87" s="5"/>
+      <c r="BA87" s="47"/>
+      <c r="BB87" s="47"/>
+      <c r="BC87" s="5"/>
+      <c r="BD87" s="5"/>
+      <c r="BE87" s="47"/>
+      <c r="BF87" s="47"/>
+      <c r="BG87" s="5"/>
+      <c r="BH87" s="5"/>
+      <c r="BI87" s="34"/>
+      <c r="BJ87" s="34"/>
+      <c r="BK87" s="34"/>
+      <c r="BL87" s="34"/>
+      <c r="BM87" s="34"/>
+      <c r="BN87" s="34"/>
+      <c r="BO87" s="34"/>
+      <c r="BP87" s="34"/>
+      <c r="BQ87" s="35"/>
+      <c r="BR87" s="33"/>
+      <c r="BS87" s="60"/>
+      <c r="BT87" s="61"/>
+      <c r="BU87" s="62"/>
+      <c r="BV87" s="63"/>
+      <c r="BW87" s="64"/>
+      <c r="BX87" s="61"/>
+      <c r="BY87" s="62"/>
+      <c r="BZ87" s="63"/>
+      <c r="CA87" s="64"/>
+      <c r="CB87" s="61"/>
+      <c r="CC87" s="62"/>
+      <c r="CD87" s="65"/>
+      <c r="CE87" s="34"/>
+      <c r="CF87" s="34"/>
+      <c r="CG87" s="34"/>
+      <c r="CH87" s="34"/>
+      <c r="CI87" s="34"/>
+      <c r="CJ87" s="34"/>
+      <c r="CK87" s="34"/>
+      <c r="CL87" s="34"/>
+      <c r="CM87" s="34"/>
+      <c r="CN87" s="35"/>
+    </row>
+    <row r="88" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="33"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="79"/>
+      <c r="N88" s="48"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="47"/>
+      <c r="R88" s="79"/>
+      <c r="S88" s="79"/>
+      <c r="T88" s="47"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="47"/>
+      <c r="W88" s="48"/>
+      <c r="X88" s="79"/>
+      <c r="Y88" s="79"/>
+      <c r="Z88" s="48"/>
+      <c r="AA88" s="47"/>
+      <c r="AB88" s="47"/>
+      <c r="AC88" s="47"/>
+      <c r="AD88" s="47"/>
+      <c r="AE88" s="47"/>
+      <c r="AF88" s="79"/>
+      <c r="AG88" s="79"/>
+      <c r="AH88" s="48"/>
+      <c r="AI88" s="47"/>
+      <c r="AJ88" s="47"/>
+      <c r="AK88" s="47"/>
+      <c r="AL88" s="47"/>
+      <c r="AM88" s="47"/>
+      <c r="AN88" s="79"/>
+      <c r="AO88" s="40"/>
+      <c r="AP88" s="34"/>
+      <c r="AQ88" s="34"/>
+      <c r="AR88" s="34"/>
+      <c r="AS88" s="34"/>
+      <c r="AT88" s="35"/>
+      <c r="AU88" s="33"/>
+      <c r="AV88" s="34"/>
+      <c r="AW88" s="5"/>
+      <c r="AX88" s="47"/>
+      <c r="AY88" s="5"/>
+      <c r="AZ88" s="47"/>
+      <c r="BA88" s="5"/>
+      <c r="BB88" s="47"/>
+      <c r="BC88" s="5"/>
+      <c r="BD88" s="47"/>
+      <c r="BE88" s="5"/>
+      <c r="BF88" s="47"/>
+      <c r="BG88" s="5"/>
+      <c r="BH88" s="47"/>
+      <c r="BI88" s="34"/>
+      <c r="BJ88" s="34"/>
+      <c r="BK88" s="34"/>
+      <c r="BL88" s="34"/>
+      <c r="BM88" s="34"/>
+      <c r="BN88" s="34"/>
+      <c r="BO88" s="34"/>
+      <c r="BP88" s="34"/>
+      <c r="BQ88" s="35"/>
+      <c r="BR88" s="33"/>
+      <c r="BS88" s="66"/>
+      <c r="BT88" s="57"/>
+      <c r="BU88" s="58"/>
+      <c r="BV88" s="57"/>
+      <c r="BW88" s="56"/>
+      <c r="BX88" s="57"/>
+      <c r="BY88" s="58"/>
+      <c r="BZ88" s="57"/>
+      <c r="CA88" s="56"/>
+      <c r="CB88" s="57"/>
+      <c r="CC88" s="58"/>
+      <c r="CD88" s="67"/>
+      <c r="CE88" s="34"/>
+      <c r="CF88" s="34"/>
+      <c r="CG88" s="34"/>
+      <c r="CH88" s="34"/>
+      <c r="CI88" s="34"/>
+      <c r="CJ88" s="34"/>
+      <c r="CK88" s="34"/>
+      <c r="CL88" s="34"/>
+      <c r="CM88" s="34"/>
+      <c r="CN88" s="35"/>
+    </row>
+    <row r="89" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="33"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="79"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="48"/>
+      <c r="P89" s="48"/>
+      <c r="Q89" s="47"/>
+      <c r="R89" s="79"/>
+      <c r="S89" s="79"/>
+      <c r="T89" s="48"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="47"/>
+      <c r="W89" s="48"/>
+      <c r="X89" s="79"/>
+      <c r="Y89" s="79"/>
+      <c r="Z89" s="47"/>
+      <c r="AA89" s="47"/>
+      <c r="AB89" s="47"/>
+      <c r="AC89" s="48"/>
+      <c r="AD89" s="47"/>
+      <c r="AE89" s="47"/>
+      <c r="AF89" s="79"/>
+      <c r="AG89" s="79"/>
+      <c r="AH89" s="47"/>
+      <c r="AI89" s="47"/>
+      <c r="AJ89" s="47"/>
+      <c r="AK89" s="48"/>
+      <c r="AL89" s="47"/>
+      <c r="AM89" s="47"/>
+      <c r="AN89" s="79"/>
+      <c r="AO89" s="40"/>
+      <c r="AP89" s="34"/>
+      <c r="AQ89" s="34"/>
+      <c r="AR89" s="34"/>
+      <c r="AS89" s="34"/>
+      <c r="AT89" s="35"/>
+      <c r="AU89" s="33"/>
+      <c r="AV89" s="34"/>
+      <c r="AW89" s="47"/>
+      <c r="AX89" s="5"/>
+      <c r="AY89" s="5"/>
+      <c r="AZ89" s="47"/>
+      <c r="BA89" s="47"/>
+      <c r="BB89" s="5"/>
+      <c r="BC89" s="5"/>
+      <c r="BD89" s="47"/>
+      <c r="BE89" s="47"/>
+      <c r="BF89" s="5"/>
+      <c r="BG89" s="5"/>
+      <c r="BH89" s="47"/>
+      <c r="BI89" s="34"/>
+      <c r="BJ89" s="34"/>
+      <c r="BK89" s="34"/>
+      <c r="BL89" s="34"/>
+      <c r="BM89" s="34"/>
+      <c r="BN89" s="34"/>
+      <c r="BO89" s="34"/>
+      <c r="BP89" s="34"/>
+      <c r="BQ89" s="35"/>
+      <c r="BR89" s="33"/>
+      <c r="BS89" s="55"/>
+      <c r="BT89" s="62"/>
+      <c r="BU89" s="63"/>
+      <c r="BV89" s="64"/>
+      <c r="BW89" s="61"/>
+      <c r="BX89" s="62"/>
+      <c r="BY89" s="63"/>
+      <c r="BZ89" s="64"/>
+      <c r="CA89" s="61"/>
+      <c r="CB89" s="62"/>
+      <c r="CC89" s="63"/>
+      <c r="CD89" s="67"/>
+      <c r="CE89" s="34"/>
+      <c r="CF89" s="34"/>
+      <c r="CG89" s="34"/>
+      <c r="CH89" s="34"/>
+      <c r="CI89" s="34"/>
+      <c r="CJ89" s="34"/>
+      <c r="CK89" s="34"/>
+      <c r="CL89" s="34"/>
+      <c r="CM89" s="34"/>
+      <c r="CN89" s="35"/>
+    </row>
+    <row r="90" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="33"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="79"/>
+      <c r="N90" s="47"/>
+      <c r="O90" s="48"/>
+      <c r="P90" s="47"/>
+      <c r="Q90" s="48"/>
+      <c r="R90" s="79"/>
+      <c r="S90" s="79"/>
+      <c r="T90" s="48"/>
+      <c r="U90" s="47"/>
+      <c r="V90" s="48"/>
+      <c r="W90" s="47"/>
+      <c r="X90" s="79"/>
+      <c r="Y90" s="79"/>
+      <c r="Z90" s="47"/>
+      <c r="AA90" s="48"/>
+      <c r="AB90" s="47"/>
+      <c r="AC90" s="47"/>
+      <c r="AD90" s="47"/>
+      <c r="AE90" s="47"/>
+      <c r="AF90" s="79"/>
+      <c r="AG90" s="79"/>
+      <c r="AH90" s="47"/>
+      <c r="AI90" s="48"/>
+      <c r="AJ90" s="47"/>
+      <c r="AK90" s="47"/>
+      <c r="AL90" s="47"/>
+      <c r="AM90" s="47"/>
+      <c r="AN90" s="79"/>
+      <c r="AO90" s="40"/>
+      <c r="AP90" s="34"/>
+      <c r="AQ90" s="34"/>
+      <c r="AR90" s="34"/>
+      <c r="AS90" s="34"/>
+      <c r="AT90" s="35"/>
+      <c r="AU90" s="33"/>
+      <c r="AV90" s="34"/>
+      <c r="AW90" s="47"/>
+      <c r="AX90" s="5"/>
+      <c r="AY90" s="47"/>
+      <c r="AZ90" s="5"/>
+      <c r="BA90" s="47"/>
+      <c r="BB90" s="5"/>
+      <c r="BC90" s="47"/>
+      <c r="BD90" s="5"/>
+      <c r="BE90" s="47"/>
+      <c r="BF90" s="5"/>
+      <c r="BG90" s="47"/>
+      <c r="BH90" s="5"/>
+      <c r="BI90" s="34"/>
+      <c r="BJ90" s="34"/>
+      <c r="BK90" s="34"/>
+      <c r="BL90" s="34"/>
+      <c r="BM90" s="34"/>
+      <c r="BN90" s="34"/>
+      <c r="BO90" s="34"/>
+      <c r="BP90" s="34"/>
+      <c r="BQ90" s="35"/>
+      <c r="BR90" s="33"/>
+      <c r="BS90" s="55"/>
+      <c r="BT90" s="58"/>
+      <c r="BU90" s="57"/>
+      <c r="BV90" s="56"/>
+      <c r="BW90" s="57"/>
+      <c r="BX90" s="58"/>
+      <c r="BY90" s="57"/>
+      <c r="BZ90" s="56"/>
+      <c r="CA90" s="57"/>
+      <c r="CB90" s="58"/>
+      <c r="CC90" s="57"/>
+      <c r="CD90" s="68"/>
+      <c r="CE90" s="34"/>
+      <c r="CF90" s="34"/>
+      <c r="CG90" s="34"/>
+      <c r="CH90" s="34"/>
+      <c r="CI90" s="34"/>
+      <c r="CJ90" s="34"/>
+      <c r="CK90" s="34"/>
+      <c r="CL90" s="34"/>
+      <c r="CM90" s="34"/>
+      <c r="CN90" s="35"/>
+    </row>
+    <row r="91" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="33"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="79"/>
+      <c r="N91" s="48"/>
+      <c r="O91" s="48"/>
+      <c r="P91" s="47"/>
+      <c r="Q91" s="47"/>
+      <c r="R91" s="79"/>
+      <c r="S91" s="79"/>
+      <c r="T91" s="47"/>
+      <c r="U91" s="47"/>
+      <c r="V91" s="48"/>
+      <c r="W91" s="48"/>
+      <c r="X91" s="79"/>
+      <c r="Y91" s="79"/>
+      <c r="Z91" s="47"/>
+      <c r="AA91" s="47"/>
+      <c r="AB91" s="48"/>
+      <c r="AC91" s="47"/>
+      <c r="AD91" s="47"/>
+      <c r="AE91" s="47"/>
+      <c r="AF91" s="79"/>
+      <c r="AG91" s="79"/>
+      <c r="AH91" s="47"/>
+      <c r="AI91" s="47"/>
+      <c r="AJ91" s="48"/>
+      <c r="AK91" s="47"/>
+      <c r="AL91" s="47"/>
+      <c r="AM91" s="47"/>
+      <c r="AN91" s="79"/>
+      <c r="AO91" s="40"/>
+      <c r="AP91" s="34"/>
+      <c r="AQ91" s="34"/>
+      <c r="AR91" s="34"/>
+      <c r="AS91" s="34"/>
+      <c r="AT91" s="35"/>
+      <c r="AU91" s="33"/>
+      <c r="AV91" s="34"/>
+      <c r="AW91" s="5"/>
+      <c r="AX91" s="5"/>
+      <c r="AY91" s="47"/>
+      <c r="AZ91" s="47"/>
+      <c r="BA91" s="5"/>
+      <c r="BB91" s="5"/>
+      <c r="BC91" s="47"/>
+      <c r="BD91" s="47"/>
+      <c r="BE91" s="5"/>
+      <c r="BF91" s="5"/>
+      <c r="BG91" s="47"/>
+      <c r="BH91" s="47"/>
+      <c r="BI91" s="34"/>
+      <c r="BJ91" s="34"/>
+      <c r="BK91" s="34"/>
+      <c r="BL91" s="34"/>
+      <c r="BM91" s="34"/>
+      <c r="BN91" s="34"/>
+      <c r="BO91" s="34"/>
+      <c r="BP91" s="34"/>
+      <c r="BQ91" s="35"/>
+      <c r="BR91" s="33"/>
+      <c r="BS91" s="69"/>
+      <c r="BT91" s="63"/>
+      <c r="BU91" s="64"/>
+      <c r="BV91" s="61"/>
+      <c r="BW91" s="62"/>
+      <c r="BX91" s="63"/>
+      <c r="BY91" s="64"/>
+      <c r="BZ91" s="61"/>
+      <c r="CA91" s="62"/>
+      <c r="CB91" s="63"/>
+      <c r="CC91" s="64"/>
+      <c r="CD91" s="70"/>
+      <c r="CE91" s="34"/>
+      <c r="CF91" s="34"/>
+      <c r="CG91" s="34"/>
+      <c r="CH91" s="34"/>
+      <c r="CI91" s="34"/>
+      <c r="CJ91" s="34"/>
+      <c r="CK91" s="34"/>
+      <c r="CL91" s="34"/>
+      <c r="CM91" s="34"/>
+      <c r="CN91" s="35"/>
+    </row>
+    <row r="92" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="33"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="79"/>
+      <c r="N92" s="48"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="48"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="79"/>
+      <c r="S92" s="79"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="48"/>
+      <c r="X92" s="79"/>
+      <c r="Y92" s="79"/>
+      <c r="Z92" s="48"/>
+      <c r="AA92" s="47"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="47"/>
+      <c r="AD92" s="47"/>
+      <c r="AE92" s="47"/>
+      <c r="AF92" s="79"/>
+      <c r="AG92" s="79"/>
+      <c r="AH92" s="48"/>
+      <c r="AI92" s="47"/>
+      <c r="AJ92" s="47"/>
+      <c r="AK92" s="47"/>
+      <c r="AL92" s="47"/>
+      <c r="AM92" s="47"/>
+      <c r="AN92" s="79"/>
+      <c r="AO92" s="40"/>
+      <c r="AP92" s="34"/>
+      <c r="AQ92" s="34"/>
+      <c r="AR92" s="34"/>
+      <c r="AS92" s="34"/>
+      <c r="AT92" s="35"/>
+      <c r="AU92" s="33"/>
+      <c r="AV92" s="34"/>
+      <c r="AW92" s="5"/>
+      <c r="AX92" s="47"/>
+      <c r="AY92" s="5"/>
+      <c r="AZ92" s="47"/>
+      <c r="BA92" s="5"/>
+      <c r="BB92" s="47"/>
+      <c r="BC92" s="5"/>
+      <c r="BD92" s="47"/>
+      <c r="BE92" s="5"/>
+      <c r="BF92" s="47"/>
+      <c r="BG92" s="5"/>
+      <c r="BH92" s="47"/>
+      <c r="BI92" s="34"/>
+      <c r="BJ92" s="34"/>
+      <c r="BK92" s="34"/>
+      <c r="BL92" s="34"/>
+      <c r="BM92" s="34"/>
+      <c r="BN92" s="34"/>
+      <c r="BO92" s="34"/>
+      <c r="BP92" s="34"/>
+      <c r="BQ92" s="35"/>
+      <c r="BR92" s="33"/>
+      <c r="BS92" s="71"/>
+      <c r="BT92" s="57"/>
+      <c r="BU92" s="56"/>
+      <c r="BV92" s="57"/>
+      <c r="BW92" s="58"/>
+      <c r="BX92" s="57"/>
+      <c r="BY92" s="56"/>
+      <c r="BZ92" s="57"/>
+      <c r="CA92" s="58"/>
+      <c r="CB92" s="57"/>
+      <c r="CC92" s="56"/>
+      <c r="CD92" s="67"/>
+      <c r="CE92" s="34"/>
+      <c r="CF92" s="34"/>
+      <c r="CG92" s="34"/>
+      <c r="CH92" s="34"/>
+      <c r="CI92" s="34"/>
+      <c r="CJ92" s="34"/>
+      <c r="CK92" s="34"/>
+      <c r="CL92" s="34"/>
+      <c r="CM92" s="34"/>
+      <c r="CN92" s="35"/>
+    </row>
+    <row r="93" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="33"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="79"/>
+      <c r="N93" s="48"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="48"/>
+      <c r="R93" s="79"/>
+      <c r="S93" s="79"/>
+      <c r="T93" s="47"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="48"/>
+      <c r="W93" s="47"/>
+      <c r="X93" s="79"/>
+      <c r="Y93" s="79"/>
+      <c r="Z93" s="47"/>
+      <c r="AA93" s="47"/>
+      <c r="AB93" s="47"/>
+      <c r="AC93" s="47"/>
+      <c r="AD93" s="47"/>
+      <c r="AE93" s="48"/>
+      <c r="AF93" s="79"/>
+      <c r="AG93" s="79"/>
+      <c r="AH93" s="47"/>
+      <c r="AI93" s="47"/>
+      <c r="AJ93" s="47"/>
+      <c r="AK93" s="47"/>
+      <c r="AL93" s="47"/>
+      <c r="AM93" s="48"/>
+      <c r="AN93" s="79"/>
+      <c r="AO93" s="40"/>
+      <c r="AP93" s="34"/>
+      <c r="AQ93" s="34"/>
+      <c r="AR93" s="34"/>
+      <c r="AS93" s="34"/>
+      <c r="AT93" s="35"/>
+      <c r="AU93" s="33"/>
+      <c r="AV93" s="34"/>
+      <c r="AW93" s="5"/>
+      <c r="AX93" s="47"/>
+      <c r="AY93" s="47"/>
+      <c r="AZ93" s="5"/>
+      <c r="BA93" s="5"/>
+      <c r="BB93" s="47"/>
+      <c r="BC93" s="47"/>
+      <c r="BD93" s="5"/>
+      <c r="BE93" s="5"/>
+      <c r="BF93" s="47"/>
+      <c r="BG93" s="47"/>
+      <c r="BH93" s="5"/>
+      <c r="BI93" s="34"/>
+      <c r="BJ93" s="34"/>
+      <c r="BK93" s="34"/>
+      <c r="BL93" s="34"/>
+      <c r="BM93" s="34"/>
+      <c r="BN93" s="34"/>
+      <c r="BO93" s="34"/>
+      <c r="BP93" s="34"/>
+      <c r="BQ93" s="35"/>
+      <c r="BR93" s="33"/>
+      <c r="BS93" s="72"/>
+      <c r="BT93" s="64"/>
+      <c r="BU93" s="61"/>
+      <c r="BV93" s="62"/>
+      <c r="BW93" s="63"/>
+      <c r="BX93" s="64"/>
+      <c r="BY93" s="61"/>
+      <c r="BZ93" s="62"/>
+      <c r="CA93" s="63"/>
+      <c r="CB93" s="64"/>
+      <c r="CC93" s="61"/>
+      <c r="CD93" s="73"/>
+      <c r="CE93" s="34"/>
+      <c r="CF93" s="34"/>
+      <c r="CG93" s="34"/>
+      <c r="CH93" s="34"/>
+      <c r="CI93" s="34"/>
+      <c r="CJ93" s="34"/>
+      <c r="CK93" s="34"/>
+      <c r="CL93" s="34"/>
+      <c r="CM93" s="34"/>
+      <c r="CN93" s="35"/>
+    </row>
+    <row r="94" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="33"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="79"/>
+      <c r="N94" s="47"/>
+      <c r="O94" s="48"/>
+      <c r="P94" s="47"/>
+      <c r="Q94" s="48"/>
+      <c r="R94" s="79"/>
+      <c r="S94" s="79"/>
+      <c r="T94" s="48"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="48"/>
+      <c r="W94" s="47"/>
+      <c r="X94" s="79"/>
+      <c r="Y94" s="79"/>
+      <c r="Z94" s="47"/>
+      <c r="AA94" s="48"/>
+      <c r="AB94" s="47"/>
+      <c r="AC94" s="47"/>
+      <c r="AD94" s="47"/>
+      <c r="AE94" s="47"/>
+      <c r="AF94" s="79"/>
+      <c r="AG94" s="79"/>
+      <c r="AH94" s="47"/>
+      <c r="AI94" s="48"/>
+      <c r="AJ94" s="47"/>
+      <c r="AK94" s="47"/>
+      <c r="AL94" s="47"/>
+      <c r="AM94" s="47"/>
+      <c r="AN94" s="79"/>
+      <c r="AO94" s="40"/>
+      <c r="AP94" s="34"/>
+      <c r="AQ94" s="34"/>
+      <c r="AR94" s="34"/>
+      <c r="AS94" s="34"/>
+      <c r="AT94" s="35"/>
+      <c r="AU94" s="33"/>
+      <c r="AV94" s="34"/>
+      <c r="AW94" s="47"/>
+      <c r="AX94" s="5"/>
+      <c r="AY94" s="47"/>
+      <c r="AZ94" s="5"/>
+      <c r="BA94" s="47"/>
+      <c r="BB94" s="5"/>
+      <c r="BC94" s="47"/>
+      <c r="BD94" s="5"/>
+      <c r="BE94" s="47"/>
+      <c r="BF94" s="5"/>
+      <c r="BG94" s="47"/>
+      <c r="BH94" s="5"/>
+      <c r="BI94" s="34"/>
+      <c r="BJ94" s="34"/>
+      <c r="BK94" s="34"/>
+      <c r="BL94" s="34"/>
+      <c r="BM94" s="34"/>
+      <c r="BN94" s="34"/>
+      <c r="BO94" s="34"/>
+      <c r="BP94" s="34"/>
+      <c r="BQ94" s="35"/>
+      <c r="BR94" s="33"/>
+      <c r="BS94" s="55"/>
+      <c r="BT94" s="56"/>
+      <c r="BU94" s="57"/>
+      <c r="BV94" s="58"/>
+      <c r="BW94" s="57"/>
+      <c r="BX94" s="56"/>
+      <c r="BY94" s="57"/>
+      <c r="BZ94" s="58"/>
+      <c r="CA94" s="57"/>
+      <c r="CB94" s="56"/>
+      <c r="CC94" s="57"/>
+      <c r="CD94" s="59"/>
+      <c r="CE94" s="34"/>
+      <c r="CF94" s="34"/>
+      <c r="CG94" s="34"/>
+      <c r="CH94" s="34"/>
+      <c r="CI94" s="34"/>
+      <c r="CJ94" s="34"/>
+      <c r="CK94" s="34"/>
+      <c r="CL94" s="34"/>
+      <c r="CM94" s="34"/>
+      <c r="CN94" s="35"/>
+    </row>
+    <row r="95" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="33"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="79"/>
+      <c r="N95" s="47"/>
+      <c r="O95" s="47"/>
+      <c r="P95" s="48"/>
+      <c r="Q95" s="48"/>
+      <c r="R95" s="79"/>
+      <c r="S95" s="79"/>
+      <c r="T95" s="48"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="47"/>
+      <c r="W95" s="47"/>
+      <c r="X95" s="79"/>
+      <c r="Y95" s="79"/>
+      <c r="Z95" s="47"/>
+      <c r="AA95" s="47"/>
+      <c r="AB95" s="47"/>
+      <c r="AC95" s="47"/>
+      <c r="AD95" s="48"/>
+      <c r="AE95" s="47"/>
+      <c r="AF95" s="79"/>
+      <c r="AG95" s="79"/>
+      <c r="AH95" s="47"/>
+      <c r="AI95" s="47"/>
+      <c r="AJ95" s="47"/>
+      <c r="AK95" s="47"/>
+      <c r="AL95" s="48"/>
+      <c r="AM95" s="47"/>
+      <c r="AN95" s="79"/>
+      <c r="AO95" s="40"/>
+      <c r="AP95" s="34"/>
+      <c r="AQ95" s="34"/>
+      <c r="AR95" s="34"/>
+      <c r="AS95" s="34"/>
+      <c r="AT95" s="35"/>
+      <c r="AU95" s="33"/>
+      <c r="AV95" s="34"/>
+      <c r="AW95" s="47"/>
+      <c r="AX95" s="47"/>
+      <c r="AY95" s="5"/>
+      <c r="AZ95" s="5"/>
+      <c r="BA95" s="47"/>
+      <c r="BB95" s="47"/>
+      <c r="BC95" s="5"/>
+      <c r="BD95" s="5"/>
+      <c r="BE95" s="47"/>
+      <c r="BF95" s="47"/>
+      <c r="BG95" s="5"/>
+      <c r="BH95" s="5"/>
+      <c r="BI95" s="34"/>
+      <c r="BJ95" s="34"/>
+      <c r="BK95" s="34"/>
+      <c r="BL95" s="34"/>
+      <c r="BM95" s="34"/>
+      <c r="BN95" s="34"/>
+      <c r="BO95" s="34"/>
+      <c r="BP95" s="34"/>
+      <c r="BQ95" s="35"/>
+      <c r="BR95" s="33"/>
+      <c r="BS95" s="60"/>
+      <c r="BT95" s="61"/>
+      <c r="BU95" s="62"/>
+      <c r="BV95" s="63"/>
+      <c r="BW95" s="64"/>
+      <c r="BX95" s="61"/>
+      <c r="BY95" s="62"/>
+      <c r="BZ95" s="63"/>
+      <c r="CA95" s="64"/>
+      <c r="CB95" s="61"/>
+      <c r="CC95" s="62"/>
+      <c r="CD95" s="65"/>
+      <c r="CE95" s="34"/>
+      <c r="CF95" s="34"/>
+      <c r="CG95" s="34"/>
+      <c r="CH95" s="34"/>
+      <c r="CI95" s="34"/>
+      <c r="CJ95" s="34"/>
+      <c r="CK95" s="34"/>
+      <c r="CL95" s="34"/>
+      <c r="CM95" s="34"/>
+      <c r="CN95" s="35"/>
+    </row>
+    <row r="96" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="33"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="34"/>
+      <c r="M96" s="79"/>
+      <c r="N96" s="48"/>
+      <c r="O96" s="47"/>
+      <c r="P96" s="48"/>
+      <c r="Q96" s="47"/>
+      <c r="R96" s="79"/>
+      <c r="S96" s="79"/>
+      <c r="T96" s="47"/>
+      <c r="U96" s="48"/>
+      <c r="V96" s="47"/>
+      <c r="W96" s="48"/>
+      <c r="X96" s="79"/>
+      <c r="Y96" s="79"/>
+      <c r="Z96" s="48"/>
+      <c r="AA96" s="47"/>
+      <c r="AB96" s="47"/>
+      <c r="AC96" s="47"/>
+      <c r="AD96" s="47"/>
+      <c r="AE96" s="47"/>
+      <c r="AF96" s="79"/>
+      <c r="AG96" s="79"/>
+      <c r="AH96" s="48"/>
+      <c r="AI96" s="47"/>
+      <c r="AJ96" s="47"/>
+      <c r="AK96" s="47"/>
+      <c r="AL96" s="47"/>
+      <c r="AM96" s="47"/>
+      <c r="AN96" s="79"/>
+      <c r="AO96" s="40"/>
+      <c r="AP96" s="34"/>
+      <c r="AQ96" s="34"/>
+      <c r="AR96" s="34"/>
+      <c r="AS96" s="34"/>
+      <c r="AT96" s="35"/>
+      <c r="AU96" s="33"/>
+      <c r="AV96" s="34"/>
+      <c r="AW96" s="5"/>
+      <c r="AX96" s="47"/>
+      <c r="AY96" s="5"/>
+      <c r="AZ96" s="47"/>
+      <c r="BA96" s="5"/>
+      <c r="BB96" s="47"/>
+      <c r="BC96" s="5"/>
+      <c r="BD96" s="47"/>
+      <c r="BE96" s="5"/>
+      <c r="BF96" s="47"/>
+      <c r="BG96" s="5"/>
+      <c r="BH96" s="47"/>
+      <c r="BI96" s="34"/>
+      <c r="BJ96" s="34"/>
+      <c r="BK96" s="34"/>
+      <c r="BL96" s="34"/>
+      <c r="BM96" s="34"/>
+      <c r="BN96" s="34"/>
+      <c r="BO96" s="34"/>
+      <c r="BP96" s="34"/>
+      <c r="BQ96" s="35"/>
+      <c r="BR96" s="33"/>
+      <c r="BS96" s="66"/>
+      <c r="BT96" s="57"/>
+      <c r="BU96" s="58"/>
+      <c r="BV96" s="57"/>
+      <c r="BW96" s="56"/>
+      <c r="BX96" s="57"/>
+      <c r="BY96" s="58"/>
+      <c r="BZ96" s="57"/>
+      <c r="CA96" s="56"/>
+      <c r="CB96" s="57"/>
+      <c r="CC96" s="58"/>
+      <c r="CD96" s="67"/>
+      <c r="CE96" s="34"/>
+      <c r="CF96" s="34"/>
+      <c r="CG96" s="34"/>
+      <c r="CH96" s="34"/>
+      <c r="CI96" s="34"/>
+      <c r="CJ96" s="34"/>
+      <c r="CK96" s="34"/>
+      <c r="CL96" s="34"/>
+      <c r="CM96" s="34"/>
+      <c r="CN96" s="35"/>
+    </row>
+    <row r="97" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="33"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="34"/>
+      <c r="M97" s="79"/>
+      <c r="N97" s="47"/>
+      <c r="O97" s="48"/>
+      <c r="P97" s="48"/>
+      <c r="Q97" s="47"/>
+      <c r="R97" s="79"/>
+      <c r="S97" s="79"/>
+      <c r="T97" s="48"/>
+      <c r="U97" s="47"/>
+      <c r="V97" s="47"/>
+      <c r="W97" s="48"/>
+      <c r="X97" s="79"/>
+      <c r="Y97" s="79"/>
+      <c r="Z97" s="47"/>
+      <c r="AA97" s="47"/>
+      <c r="AB97" s="47"/>
+      <c r="AC97" s="48"/>
+      <c r="AD97" s="47"/>
+      <c r="AE97" s="47"/>
+      <c r="AF97" s="79"/>
+      <c r="AG97" s="79"/>
+      <c r="AH97" s="47"/>
+      <c r="AI97" s="47"/>
+      <c r="AJ97" s="47"/>
+      <c r="AK97" s="48"/>
+      <c r="AL97" s="47"/>
+      <c r="AM97" s="47"/>
+      <c r="AN97" s="79"/>
+      <c r="AO97" s="40"/>
+      <c r="AP97" s="34"/>
+      <c r="AQ97" s="34"/>
+      <c r="AR97" s="34"/>
+      <c r="AS97" s="34"/>
+      <c r="AT97" s="35"/>
+      <c r="AU97" s="33"/>
+      <c r="AV97" s="34"/>
+      <c r="AW97" s="47"/>
+      <c r="AX97" s="5"/>
+      <c r="AY97" s="5"/>
+      <c r="AZ97" s="47"/>
+      <c r="BA97" s="47"/>
+      <c r="BB97" s="5"/>
+      <c r="BC97" s="5"/>
+      <c r="BD97" s="47"/>
+      <c r="BE97" s="47"/>
+      <c r="BF97" s="5"/>
+      <c r="BG97" s="5"/>
+      <c r="BH97" s="47"/>
+      <c r="BI97" s="34"/>
+      <c r="BJ97" s="34"/>
+      <c r="BK97" s="34"/>
+      <c r="BL97" s="34"/>
+      <c r="BM97" s="34"/>
+      <c r="BN97" s="34"/>
+      <c r="BO97" s="34"/>
+      <c r="BP97" s="34"/>
+      <c r="BQ97" s="35"/>
+      <c r="BR97" s="33"/>
+      <c r="BS97" s="55"/>
+      <c r="BT97" s="62"/>
+      <c r="BU97" s="63"/>
+      <c r="BV97" s="64"/>
+      <c r="BW97" s="61"/>
+      <c r="BX97" s="62"/>
+      <c r="BY97" s="63"/>
+      <c r="BZ97" s="64"/>
+      <c r="CA97" s="61"/>
+      <c r="CB97" s="62"/>
+      <c r="CC97" s="63"/>
+      <c r="CD97" s="67"/>
+      <c r="CE97" s="34"/>
+      <c r="CF97" s="34"/>
+      <c r="CG97" s="34"/>
+      <c r="CH97" s="34"/>
+      <c r="CI97" s="34"/>
+      <c r="CJ97" s="34"/>
+      <c r="CK97" s="34"/>
+      <c r="CL97" s="34"/>
+      <c r="CM97" s="34"/>
+      <c r="CN97" s="35"/>
+    </row>
+    <row r="98" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="33"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="79"/>
+      <c r="N98" s="47"/>
+      <c r="O98" s="48"/>
+      <c r="P98" s="47"/>
+      <c r="Q98" s="48"/>
+      <c r="R98" s="79"/>
+      <c r="S98" s="79"/>
+      <c r="T98" s="48"/>
+      <c r="U98" s="47"/>
+      <c r="V98" s="48"/>
+      <c r="W98" s="47"/>
+      <c r="X98" s="79"/>
+      <c r="Y98" s="79"/>
+      <c r="Z98" s="47"/>
+      <c r="AA98" s="48"/>
+      <c r="AB98" s="47"/>
+      <c r="AC98" s="47"/>
+      <c r="AD98" s="47"/>
+      <c r="AE98" s="47"/>
+      <c r="AF98" s="79"/>
+      <c r="AG98" s="79"/>
+      <c r="AH98" s="47"/>
+      <c r="AI98" s="48"/>
+      <c r="AJ98" s="47"/>
+      <c r="AK98" s="47"/>
+      <c r="AL98" s="47"/>
+      <c r="AM98" s="47"/>
+      <c r="AN98" s="79"/>
+      <c r="AO98" s="40"/>
+      <c r="AP98" s="34"/>
+      <c r="AQ98" s="34"/>
+      <c r="AR98" s="34"/>
+      <c r="AS98" s="34"/>
+      <c r="AT98" s="35"/>
+      <c r="AU98" s="33"/>
+      <c r="AV98" s="34"/>
+      <c r="AW98" s="47"/>
+      <c r="AX98" s="5"/>
+      <c r="AY98" s="47"/>
+      <c r="AZ98" s="5"/>
+      <c r="BA98" s="47"/>
+      <c r="BB98" s="5"/>
+      <c r="BC98" s="47"/>
+      <c r="BD98" s="5"/>
+      <c r="BE98" s="47"/>
+      <c r="BF98" s="5"/>
+      <c r="BG98" s="47"/>
+      <c r="BH98" s="5"/>
+      <c r="BI98" s="34"/>
+      <c r="BJ98" s="34"/>
+      <c r="BK98" s="34"/>
+      <c r="BL98" s="34"/>
+      <c r="BM98" s="34"/>
+      <c r="BN98" s="34"/>
+      <c r="BO98" s="34"/>
+      <c r="BP98" s="34"/>
+      <c r="BQ98" s="35"/>
+      <c r="BR98" s="33"/>
+      <c r="BS98" s="55"/>
+      <c r="BT98" s="58"/>
+      <c r="BU98" s="57"/>
+      <c r="BV98" s="56"/>
+      <c r="BW98" s="57"/>
+      <c r="BX98" s="58"/>
+      <c r="BY98" s="57"/>
+      <c r="BZ98" s="56"/>
+      <c r="CA98" s="57"/>
+      <c r="CB98" s="58"/>
+      <c r="CC98" s="57"/>
+      <c r="CD98" s="68"/>
+      <c r="CE98" s="34"/>
+      <c r="CF98" s="34"/>
+      <c r="CG98" s="34"/>
+      <c r="CH98" s="34"/>
+      <c r="CI98" s="34"/>
+      <c r="CJ98" s="34"/>
+      <c r="CK98" s="34"/>
+      <c r="CL98" s="34"/>
+      <c r="CM98" s="34"/>
+      <c r="CN98" s="35"/>
+    </row>
+    <row r="99" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="33"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="34"/>
+      <c r="M99" s="79"/>
+      <c r="N99" s="48"/>
+      <c r="O99" s="48"/>
+      <c r="P99" s="47"/>
+      <c r="Q99" s="47"/>
+      <c r="R99" s="79"/>
+      <c r="S99" s="79"/>
+      <c r="T99" s="47"/>
+      <c r="U99" s="47"/>
+      <c r="V99" s="48"/>
+      <c r="W99" s="48"/>
+      <c r="X99" s="79"/>
+      <c r="Y99" s="79"/>
+      <c r="Z99" s="47"/>
+      <c r="AA99" s="47"/>
+      <c r="AB99" s="48"/>
+      <c r="AC99" s="47"/>
+      <c r="AD99" s="47"/>
+      <c r="AE99" s="47"/>
+      <c r="AF99" s="79"/>
+      <c r="AG99" s="79"/>
+      <c r="AH99" s="47"/>
+      <c r="AI99" s="47"/>
+      <c r="AJ99" s="48"/>
+      <c r="AK99" s="47"/>
+      <c r="AL99" s="47"/>
+      <c r="AM99" s="47"/>
+      <c r="AN99" s="79"/>
+      <c r="AO99" s="40"/>
+      <c r="AP99" s="34"/>
+      <c r="AQ99" s="34"/>
+      <c r="AR99" s="34"/>
+      <c r="AS99" s="34"/>
+      <c r="AT99" s="35"/>
+      <c r="AU99" s="33"/>
+      <c r="AV99" s="34"/>
+      <c r="AW99" s="5"/>
+      <c r="AX99" s="5"/>
+      <c r="AY99" s="47"/>
+      <c r="AZ99" s="47"/>
+      <c r="BA99" s="5"/>
+      <c r="BB99" s="5"/>
+      <c r="BC99" s="47"/>
+      <c r="BD99" s="47"/>
+      <c r="BE99" s="5"/>
+      <c r="BF99" s="5"/>
+      <c r="BG99" s="47"/>
+      <c r="BH99" s="47"/>
+      <c r="BI99" s="34"/>
+      <c r="BJ99" s="34"/>
+      <c r="BK99" s="34"/>
+      <c r="BL99" s="34"/>
+      <c r="BM99" s="34"/>
+      <c r="BN99" s="34"/>
+      <c r="BO99" s="34"/>
+      <c r="BP99" s="34"/>
+      <c r="BQ99" s="35"/>
+      <c r="BR99" s="33"/>
+      <c r="BS99" s="69"/>
+      <c r="BT99" s="63"/>
+      <c r="BU99" s="64"/>
+      <c r="BV99" s="61"/>
+      <c r="BW99" s="62"/>
+      <c r="BX99" s="63"/>
+      <c r="BY99" s="64"/>
+      <c r="BZ99" s="61"/>
+      <c r="CA99" s="62"/>
+      <c r="CB99" s="63"/>
+      <c r="CC99" s="64"/>
+      <c r="CD99" s="70"/>
+      <c r="CE99" s="34"/>
+      <c r="CF99" s="34"/>
+      <c r="CG99" s="34"/>
+      <c r="CH99" s="34"/>
+      <c r="CI99" s="34"/>
+      <c r="CJ99" s="34"/>
+      <c r="CK99" s="34"/>
+      <c r="CL99" s="34"/>
+      <c r="CM99" s="34"/>
+      <c r="CN99" s="35"/>
+    </row>
+    <row r="100" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="33"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="79"/>
+      <c r="N100" s="48"/>
+      <c r="O100" s="47"/>
+      <c r="P100" s="48"/>
+      <c r="Q100" s="47"/>
+      <c r="R100" s="79"/>
+      <c r="S100" s="79"/>
+      <c r="T100" s="47"/>
+      <c r="U100" s="48"/>
+      <c r="V100" s="47"/>
+      <c r="W100" s="48"/>
+      <c r="X100" s="79"/>
+      <c r="Y100" s="79"/>
+      <c r="Z100" s="48"/>
+      <c r="AA100" s="47"/>
+      <c r="AB100" s="47"/>
+      <c r="AC100" s="47"/>
+      <c r="AD100" s="47"/>
+      <c r="AE100" s="47"/>
+      <c r="AF100" s="79"/>
+      <c r="AG100" s="79"/>
+      <c r="AH100" s="48"/>
+      <c r="AI100" s="47"/>
+      <c r="AJ100" s="47"/>
+      <c r="AK100" s="47"/>
+      <c r="AL100" s="47"/>
+      <c r="AM100" s="47"/>
+      <c r="AN100" s="79"/>
+      <c r="AO100" s="40"/>
+      <c r="AP100" s="34"/>
+      <c r="AQ100" s="34"/>
+      <c r="AR100" s="34"/>
+      <c r="AS100" s="34"/>
+      <c r="AT100" s="35"/>
+      <c r="AU100" s="33"/>
+      <c r="AV100" s="34"/>
+      <c r="AW100" s="5"/>
+      <c r="AX100" s="47"/>
+      <c r="AY100" s="5"/>
+      <c r="AZ100" s="47"/>
+      <c r="BA100" s="5"/>
+      <c r="BB100" s="47"/>
+      <c r="BC100" s="5"/>
+      <c r="BD100" s="47"/>
+      <c r="BE100" s="5"/>
+      <c r="BF100" s="47"/>
+      <c r="BG100" s="5"/>
+      <c r="BH100" s="47"/>
+      <c r="BI100" s="34"/>
+      <c r="BJ100" s="34"/>
+      <c r="BK100" s="34"/>
+      <c r="BL100" s="34"/>
+      <c r="BM100" s="34"/>
+      <c r="BN100" s="34"/>
+      <c r="BO100" s="34"/>
+      <c r="BP100" s="34"/>
+      <c r="BQ100" s="35"/>
+      <c r="BR100" s="33"/>
+      <c r="BS100" s="74"/>
+      <c r="BT100" s="75"/>
+      <c r="BU100" s="76"/>
+      <c r="BV100" s="75"/>
+      <c r="BW100" s="77"/>
+      <c r="BX100" s="75"/>
+      <c r="BY100" s="76"/>
+      <c r="BZ100" s="75"/>
+      <c r="CA100" s="77"/>
+      <c r="CB100" s="75"/>
+      <c r="CC100" s="76"/>
+      <c r="CD100" s="78"/>
+      <c r="CE100" s="34"/>
+      <c r="CF100" s="34"/>
+      <c r="CG100" s="34"/>
+      <c r="CH100" s="34"/>
+      <c r="CI100" s="34"/>
+      <c r="CJ100" s="34"/>
+      <c r="CK100" s="34"/>
+      <c r="CL100" s="34"/>
+      <c r="CM100" s="34"/>
+      <c r="CN100" s="35"/>
+    </row>
+    <row r="101" spans="1:92" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="41"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="42"/>
+      <c r="M101" s="42"/>
+      <c r="N101" s="42"/>
+      <c r="O101" s="42"/>
+      <c r="P101" s="42"/>
+      <c r="Q101" s="42"/>
+      <c r="R101" s="42"/>
+      <c r="S101" s="42"/>
+      <c r="T101" s="42"/>
+      <c r="U101" s="42"/>
+      <c r="V101" s="42"/>
+      <c r="W101" s="42"/>
+      <c r="X101" s="42"/>
+      <c r="Y101" s="42"/>
+      <c r="Z101" s="42"/>
+      <c r="AA101" s="42"/>
+      <c r="AB101" s="42"/>
+      <c r="AC101" s="42"/>
+      <c r="AD101" s="42"/>
+      <c r="AE101" s="42"/>
+      <c r="AF101" s="42"/>
+      <c r="AG101" s="42"/>
+      <c r="AH101" s="42"/>
+      <c r="AI101" s="42"/>
+      <c r="AJ101" s="42"/>
+      <c r="AK101" s="42"/>
+      <c r="AL101" s="42"/>
+      <c r="AM101" s="42"/>
+      <c r="AN101" s="42"/>
+      <c r="AO101" s="42"/>
+      <c r="AP101" s="42"/>
+      <c r="AQ101" s="42"/>
+      <c r="AR101" s="42"/>
+      <c r="AS101" s="42"/>
+      <c r="AT101" s="43"/>
+      <c r="AU101" s="41"/>
+      <c r="AV101" s="42"/>
+      <c r="AW101" s="42"/>
+      <c r="AX101" s="42"/>
+      <c r="AY101" s="42"/>
+      <c r="AZ101" s="42"/>
+      <c r="BA101" s="42"/>
+      <c r="BB101" s="42"/>
+      <c r="BC101" s="42"/>
+      <c r="BD101" s="42"/>
+      <c r="BE101" s="42"/>
+      <c r="BF101" s="42"/>
+      <c r="BG101" s="42"/>
+      <c r="BH101" s="42"/>
+      <c r="BI101" s="42"/>
+      <c r="BJ101" s="42"/>
+      <c r="BK101" s="42"/>
+      <c r="BL101" s="42"/>
+      <c r="BM101" s="42"/>
+      <c r="BN101" s="42"/>
+      <c r="BO101" s="42"/>
+      <c r="BP101" s="42"/>
+      <c r="BQ101" s="43"/>
+      <c r="BR101" s="41"/>
+      <c r="BS101" s="42"/>
+      <c r="BT101" s="42"/>
+      <c r="BU101" s="42"/>
+      <c r="BV101" s="42"/>
+      <c r="BW101" s="42"/>
+      <c r="BX101" s="42"/>
+      <c r="BY101" s="42"/>
+      <c r="BZ101" s="42"/>
+      <c r="CA101" s="42"/>
+      <c r="CB101" s="42"/>
+      <c r="CC101" s="42"/>
+      <c r="CD101" s="42"/>
+      <c r="CE101" s="42"/>
+      <c r="CF101" s="42"/>
+      <c r="CG101" s="42"/>
+      <c r="CH101" s="42"/>
+      <c r="CI101" s="42"/>
+      <c r="CJ101" s="42"/>
+      <c r="CK101" s="42"/>
+      <c r="CL101" s="42"/>
+      <c r="CM101" s="42"/>
+      <c r="CN101" s="43"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
